--- a/a.xlsx
+++ b/a.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X23"/>
+  <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,46 +507,6 @@
       <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 14</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 15</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 16</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 17</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 18</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 19</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 20</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 21</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 22</t>
         </is>
       </c>
     </row>
@@ -573,14 +533,6 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -601,14 +553,6 @@
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -616,12 +560,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>客戶編號:A200</t>
+          <t>客戶編號:A491</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>客戶類別:HM-699三溫 中T五道純水機</t>
+          <t>客戶類別:愛惠浦S104//</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -641,14 +585,6 @@
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -656,7 +592,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>客戶名稱:黃健育(美華叔)</t>
+          <t>客戶名稱:陳信達</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -673,14 +609,6 @@
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
-      <c r="X5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -688,12 +616,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>聯絡電話:9327210</t>
+          <t>聯絡電話:9515466</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>行動電話:0918409159</t>
+          <t>行動電話:0963065555</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -709,22 +637,10 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>103.06.30</t>
-        </is>
-      </c>
+      <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -732,7 +648,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>地址:嵐峰路</t>
+          <t>地址:羅東鎮尚智街15-1號2樓</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -757,14 +673,6 @@
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -785,14 +693,6 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -800,7 +700,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>保養:6個月</t>
+          <t>保養:18個月</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -821,14 +721,6 @@
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -854,10 +746,10 @@
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="N10" t="n">
-        <v>19400</v>
+        <v>7200</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -865,14 +757,6 @@
         </is>
       </c>
       <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -886,27 +770,27 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>第一道</t>
+          <t xml:space="preserve">第一道   </t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>第二道</t>
+          <t xml:space="preserve">第二道 S104 </t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>第三道</t>
+          <t xml:space="preserve">第三道  </t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>第四道</t>
+          <t xml:space="preserve">第四道 </t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>第五道</t>
+          <t xml:space="preserve">第五道 </t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -933,14 +817,6 @@
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -951,24 +827,16 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>104.01.09</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
+          <t>104.07.20</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
         <is>
           <t>∨</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>∨</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>∨</t>
-        </is>
-      </c>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
@@ -979,22 +847,12 @@
           <t>珏慶</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>贈</t>
-        </is>
+      <c r="M12" t="n">
+        <v>1800</v>
       </c>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="inlineStr"/>
-      <c r="T12" t="inlineStr"/>
-      <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr"/>
-      <c r="X12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1005,30 +863,18 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>104.12.05</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
+          <t>106.02.23</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
         <is>
           <t>∨</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>∨</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>∨</t>
-        </is>
-      </c>
+      <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>∨</t>
-        </is>
-      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -1038,19 +884,11 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="inlineStr"/>
-      <c r="T13" t="inlineStr"/>
-      <c r="U13" t="inlineStr"/>
-      <c r="V13" t="inlineStr"/>
-      <c r="W13" t="inlineStr"/>
-      <c r="X13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1061,24 +899,16 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>105.06.11</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
+          <t>107.09.06</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
         <is>
           <t>∨</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>∨</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>∨</t>
-        </is>
-      </c>
+      <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
@@ -1090,19 +920,11 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1113,30 +935,18 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>106.01.07</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
+          <t>110.02.27</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
         <is>
           <t>∨</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>∨</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>∨</t>
-        </is>
-      </c>
+      <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>∨</t>
-        </is>
-      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -1146,463 +956,11 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr"/>
-      <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>5</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>106.08.26</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>∨</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>∨</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>∨</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>珏慶</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr"/>
-      <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr"/>
-      <c r="X16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>6</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>107.06.03</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>∨</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>∨</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>∨</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>∨</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>珏慶</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1500</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="inlineStr"/>
-      <c r="T17" t="inlineStr"/>
-      <c r="U17" t="inlineStr"/>
-      <c r="V17" t="inlineStr"/>
-      <c r="W17" t="inlineStr"/>
-      <c r="X17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>7</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>107.12.02</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>∨</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>∨</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>∨</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>∨</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>珏慶</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>2700</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr"/>
-      <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr"/>
-      <c r="V18" t="inlineStr"/>
-      <c r="W18" t="inlineStr"/>
-      <c r="X18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>8</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>108.06.07</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>∨</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>∨</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>∨</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>∨</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>珏慶</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>1500</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="inlineStr"/>
-      <c r="T19" t="inlineStr"/>
-      <c r="U19" t="inlineStr"/>
-      <c r="V19" t="inlineStr"/>
-      <c r="W19" t="inlineStr"/>
-      <c r="X19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>9</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>108.12.21</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>∨</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>∨</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>∨</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>珏慶</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="inlineStr"/>
-      <c r="T20" t="inlineStr"/>
-      <c r="U20" t="inlineStr"/>
-      <c r="V20" t="inlineStr"/>
-      <c r="W20" t="inlineStr"/>
-      <c r="X20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>10</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>109.06.20</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>∨</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>∨</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>∨</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>∨</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>健瑋</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1500</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="inlineStr"/>
-      <c r="T21" t="inlineStr"/>
-      <c r="U21" t="inlineStr"/>
-      <c r="V21" t="inlineStr"/>
-      <c r="W21" t="inlineStr"/>
-      <c r="X21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>11</v>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>109.12.19</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>∨</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>∨</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>∨</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>∨</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>珏慶</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>2700</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="inlineStr"/>
-      <c r="T22" t="inlineStr"/>
-      <c r="U22" t="inlineStr"/>
-      <c r="V22" t="inlineStr"/>
-      <c r="W22" t="inlineStr"/>
-      <c r="X22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>12</v>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>111.04.11</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>∨</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>∨</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>∨</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>∨</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>熱膽2000</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>珏慶</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>3500</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="inlineStr"/>
-      <c r="T23" t="inlineStr"/>
-      <c r="U23" t="inlineStr"/>
-      <c r="V23" t="inlineStr"/>
-      <c r="W23" t="inlineStr"/>
-      <c r="X23" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/a.xlsx
+++ b/a.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,11 +502,6 @@
       <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 13</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 14</t>
         </is>
       </c>
     </row>
@@ -532,7 +527,6 @@
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -552,7 +546,6 @@
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -560,19 +553,15 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>客戶編號:A491</t>
+          <t>客戶編號:A1787</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>客戶類別:愛惠浦S104//</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>職務職稱:</t>
-        </is>
-      </c>
+          <t>客戶類別:20"大胖二道(不銹鋼吊片)/</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -584,7 +573,6 @@
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -592,7 +580,8 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>客戶名稱:陳信達</t>
+          <t xml:space="preserve">客戶名稱:游承哲
+</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -608,7 +597,6 @@
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -616,19 +604,15 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>聯絡電話:9515466</t>
+          <t>聯絡電話:</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>行動電話:0963065555</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>安裝日期:</t>
-        </is>
-      </c>
+          <t>行動電話:0983270928</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -636,11 +620,14 @@
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>安裝日期:109.09.07</t>
+        </is>
+      </c>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -648,7 +635,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>地址:羅東鎮尚智街15-1號2樓</t>
+          <t>地址:宜蘭市中山路五段197巷98號</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -656,11 +643,7 @@
           <t>聯絡人:</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>電話:</t>
-        </is>
-      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -672,7 +655,6 @@
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -692,7 +674,6 @@
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -700,12 +681,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>保養:18個月</t>
+          <t>保養:6個月</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>備註:</t>
+          <t>備註:8500</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
@@ -720,7 +701,6 @@
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -732,11 +712,7 @@
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>(共</t>
-        </is>
-      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -744,19 +720,22 @@
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>(共</t>
+        </is>
+      </c>
       <c r="M10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N10" t="n">
-        <v>7200</v>
+        <v>0</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
           <t>)</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -770,22 +749,22 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve">第一道   </t>
+          <t>第一道</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t xml:space="preserve">第二道 S104 </t>
+          <t>第二道</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t xml:space="preserve">第三道  </t>
+          <t>第三道</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t xml:space="preserve">第四道 </t>
+          <t>第四道</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -816,7 +795,6 @@
       </c>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -825,142 +803,19 @@
       <c r="B12" t="n">
         <v>1</v>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>104.07.20</t>
-        </is>
-      </c>
+      <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>∨</t>
-        </is>
-      </c>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>珏慶</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>1800</v>
-      </c>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>2</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>106.02.23</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>∨</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>珏慶</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>1800</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>3</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>107.09.06</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>∨</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>珏慶</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>1800</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>4</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>110.02.27</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>∨</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>珏慶</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>1800</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/a.xlsx
+++ b/a.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -553,15 +553,19 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>客戶編號:A1787</t>
+          <t>客戶編號:A2402</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>客戶類別:20"大胖二道(不銹鋼吊片)/</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
+          <t>客戶類別:標三道+MC2、30G開水機</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>職務職稱:</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -580,11 +584,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve">客戶名稱:游承哲
-</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
+          <t>客戶名稱:沃客茶喫(飲料店)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
@@ -609,10 +616,14 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>行動電話:0983270928</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
+          <t>行動電話:0913750605</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>安裝日期:</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -620,11 +631,7 @@
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>安裝日期:109.09.07</t>
-        </is>
-      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
@@ -635,15 +642,19 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>地址:宜蘭市中山路五段197巷98號</t>
+          <t>地址:蘇澳鎮中山路一段73號</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>聯絡人:</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
+          <t>抬頭：聚喜利有限公司蘇澳營業所(含稅)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>電話:</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -661,7 +672,11 @@
         <v>6</v>
       </c>
       <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>統編：91605176</t>
+        </is>
+      </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
@@ -681,12 +696,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>保養:6個月</t>
+          <t>保養:3個月</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>備註:8500</t>
+          <t xml:space="preserve">備註: </t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
@@ -712,7 +727,11 @@
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>(共</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -720,16 +739,12 @@
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>(共</t>
-        </is>
-      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -749,17 +764,20 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>第一道</t>
+          <t xml:space="preserve">第一道
+標P   </t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>第二道</t>
+          <t>第二道
+標R</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>第三道</t>
+          <t xml:space="preserve">第三道
+標C  </t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -769,7 +787,8 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t xml:space="preserve">第五道 </t>
+          <t>第五道
+MC2</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -803,19 +822,62 @@
       <c r="B12" t="n">
         <v>1</v>
       </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>111.04.15</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>珏慶</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
+        <v>1000</v>
+      </c>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
